--- a/inst/extdata/IndexClass.xlsx
+++ b/inst/extdata/IndexClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Documents\GitHub\BioMonTools\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BioMonTools_BenB/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDB0B74-FCFE-46F9-818F-AEA139E96BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7095" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
@@ -785,7 +785,7 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +823,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\Documents\GitHub\BioMonTools\inst\extdata\[IndexClass.xlsx]</v>
+        <v>https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/BioMonTools_BenB/inst/extdata/[IndexClass.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9:G15"/>
     </sheetView>
